--- a/Thesis/Overleaf Version/data input.xlsx
+++ b/Thesis/Overleaf Version/data input.xlsx
@@ -192,14 +192,14 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,6 +396,7 @@
         <v>129851.282051282</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -425,12 +426,12 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:K8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,14 +1480,14 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J2:K8 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,10 +2393,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="J2:K8 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/Thesis/Overleaf Version/data input.xlsx
+++ b/Thesis/Overleaf Version/data input.xlsx
@@ -192,10 +192,10 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:K8"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.13"/>
@@ -426,10 +426,10 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J2:K8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
   </cols>
@@ -1481,10 +1481,10 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="J2:K8 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.13"/>
@@ -2393,10 +2393,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="J2:K8 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
